--- a/INSPECTION SAMPLE.xlsx
+++ b/INSPECTION SAMPLE.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4224DBFC-60B5-4CB7-B607-587D7653CD32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Apache Software Foundation\Tomcat 9.0\webapps\LGU-PAEIS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FEC5847F-0C95-4001-A10B-7C2B7AAE68F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSPECTION SHEET" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>REFERENCE NUMBER</t>
   </si>
@@ -53,13 +50,25 @@
   </si>
   <si>
     <t>REMARKS</t>
+  </si>
+  <si>
+    <t>193228-190329</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>OK TEST MIGRATE</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,66 +413,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A13"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
